--- a/StructureDefinition-BodyHeight.xlsx
+++ b/StructureDefinition-BodyHeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T15:55:49+00:00</t>
+    <t>2022-05-16T14:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BodyHeight.xlsx
+++ b/StructureDefinition-BodyHeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:46:52+00:00</t>
+    <t>2023-09-01T11:58:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
